--- a/صيدليات دكتور مصطفي طلعت_2026-01-11_13-24.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-11_13-24.xlsx
@@ -53,9 +53,18 @@
     <t>0:0</t>
   </si>
   <si>
+    <t>COLDATREXY 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
     <t>CONVENTIN XR 600MG 30 TABS.</t>
   </si>
   <si>
+    <t>DELTARHINO NASAL SPRAY 15 ML</t>
+  </si>
+  <si>
     <t>GAST-REG 200 MG 30 TABS.</t>
   </si>
   <si>
@@ -63,6 +72,9 @@
   </si>
   <si>
     <t>HELI-CURE 14 ENTERIC COATED TAB</t>
+  </si>
+  <si>
+    <t>HIBIOTIC 625MG 16 TAB.</t>
   </si>
   <si>
     <t>OTRIVIN 0.1% ADULT NASAL DROPS 15 ML</t>
@@ -781,13 +793,13 @@
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c t="s" r="H7" s="8">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" s="9">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="M7" s="9"/>
       <c t="s" r="N7" s="7">
@@ -799,7 +811,7 @@
         <v>5</v>
       </c>
       <c t="s" r="B8" s="7">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -807,13 +819,13 @@
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c t="s" r="H8" s="8">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="9">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="M8" s="9"/>
       <c t="s" r="N8" s="7">
@@ -833,17 +845,17 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c t="s" r="H9" s="8">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="9">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="M9" s="9"/>
       <c t="s" r="N9" s="7">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1">
@@ -865,11 +877,11 @@
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="9">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M10" s="9"/>
       <c t="s" r="N10" s="7">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" ht="24.75" customHeight="1">
@@ -885,17 +897,17 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c t="s" r="H11" s="8">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="9">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="M11" s="9"/>
       <c t="s" r="N11" s="7">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -911,13 +923,13 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c t="s" r="H12" s="8">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="9">
-        <v>18</v>
+        <v>71.5</v>
       </c>
       <c r="M12" s="9"/>
       <c t="s" r="N12" s="7">
@@ -943,11 +955,11 @@
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="9">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="M13" s="9"/>
       <c t="s" r="N13" s="7">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" ht="24.75" customHeight="1">
@@ -955,7 +967,7 @@
         <v>11</v>
       </c>
       <c t="s" r="B14" s="7">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -963,17 +975,17 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c t="s" r="H14" s="8">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="9">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="M14" s="9"/>
       <c t="s" r="N14" s="7">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" ht="25.5" customHeight="1">
@@ -981,7 +993,7 @@
         <v>12</v>
       </c>
       <c t="s" r="B15" s="7">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -989,17 +1001,17 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c t="s" r="H15" s="8">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="9">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="M15" s="9"/>
       <c t="s" r="N15" s="7">
-        <v>29</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" ht="24.75" customHeight="1">
@@ -1007,7 +1019,7 @@
         <v>13</v>
       </c>
       <c t="s" r="B16" s="7">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -1015,17 +1027,17 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c t="s" r="H16" s="8">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="9">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="M16" s="9"/>
       <c t="s" r="N16" s="7">
-        <v>8</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1033,7 +1045,7 @@
         <v>14</v>
       </c>
       <c t="s" r="B17" s="7">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -1041,51 +1053,129 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c t="s" r="H17" s="8">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="9">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="M17" s="9"/>
       <c t="s" r="N17" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" ht="25.5" customHeight="1">
+      <c r="A18" s="6">
+        <v>15</v>
+      </c>
+      <c t="s" r="B18" s="7">
+        <v>31</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c t="s" r="H18" s="8">
+        <v>32</v>
+      </c>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="9">
+        <v>4</v>
+      </c>
+      <c r="M18" s="9"/>
+      <c t="s" r="N18" s="7">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" ht="24.75" customHeight="1">
+      <c r="A19" s="6">
+        <v>16</v>
+      </c>
+      <c t="s" r="B19" s="7">
+        <v>34</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c t="s" r="H19" s="8">
+        <v>35</v>
+      </c>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="9">
+        <v>15</v>
+      </c>
+      <c r="M19" s="9"/>
+      <c t="s" r="N19" s="7">
         <v>8</v>
       </c>
     </row>
-    <row r="18" ht="25.5" customHeight="1">
-      <c r="K18" s="10">
-        <v>570.33000000000004</v>
-      </c>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-    </row>
-    <row r="19" ht="17.25" customHeight="1">
-      <c t="s" r="A19" s="11">
-        <v>34</v>
-      </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c t="s" r="F19" s="12">
-        <v>35</v>
-      </c>
-      <c r="G19" s="12"/>
-      <c r="H19" s="13"/>
-      <c t="s" r="I19" s="14">
+    <row r="20" ht="25.5" customHeight="1">
+      <c r="A20" s="6">
+        <v>17</v>
+      </c>
+      <c t="s" r="B20" s="7">
         <v>36</v>
       </c>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="14"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c t="s" r="H20" s="8">
+        <v>37</v>
+      </c>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="9">
+        <v>30</v>
+      </c>
+      <c r="M20" s="9"/>
+      <c t="s" r="N20" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" ht="25.5" customHeight="1">
+      <c r="K21" s="10">
+        <v>692.83000000000004</v>
+      </c>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+    </row>
+    <row r="22" ht="16.5" customHeight="1">
+      <c t="s" r="A22" s="11">
+        <v>38</v>
+      </c>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c t="s" r="F22" s="12">
+        <v>39</v>
+      </c>
+      <c r="G22" s="12"/>
+      <c r="H22" s="13"/>
+      <c t="s" r="I22" s="14">
+        <v>40</v>
+      </c>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="53">
+  <mergeCells count="62">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -1135,10 +1225,19 @@
     <mergeCell ref="B17:G17"/>
     <mergeCell ref="H17:K17"/>
     <mergeCell ref="L17:M17"/>
-    <mergeCell ref="K18:N18"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="I19:N19"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="I22:N22"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
